--- a/setting.xlsx
+++ b/setting.xlsx
@@ -450,7 +450,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>기본월</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>자동저장</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,25 @@
           <t>자동저장</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>고정항목 자동선택</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>고정항목 대분류</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>고정항목 소분류</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -461,6 +476,59 @@
         <is>
           <t>on</t>
         </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>집</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>고정항목 대분류</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>고정항목 소분류</t>
+          <t>고정항목 분류</t>
         </is>
       </c>
     </row>
@@ -479,16 +474,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>on</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>구독</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+          <t>M=대분류/S=소분류</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -498,11 +490,8 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>집</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
+          <t>M.구독</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -510,12 +499,9 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>월세</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M.집</t>
         </is>
       </c>
     </row>
@@ -524,11 +510,10 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S.월세</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/setting.xlsx
+++ b/setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,17 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M.월급</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
